--- a/biology/Botanique/Saba_comorensis/Saba_comorensis.xlsx
+++ b/biology/Botanique/Saba_comorensis/Saba_comorensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saba comorensis est une espèce de plantes de la famille des Apocynaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Saba comorensis, le bungo (pl. Mabungo), ou mbungo en swahili ou la vigne en caoutchouc est une plante grimpante répandue dans la plupart des pays d'Afrique tropicale, ainsi qu'à Madagascar et aux Comores. Il pousse en Tanzanie, par exemple sur les îles de Pemba et de Zanzibar dans l'océan Indien.
 Cette liane peut mesurer plus de 20 m de long. Elle produit un latex collant quand on la coupe.
